--- a/Telegram.xlsx
+++ b/Telegram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bovi\MyGridBot 2.6.4_TG\MyGridBot 2.6.4_TG\MyGridBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gergardt\source\repos\MyGridBotTG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD814326-48FF-4C91-ACFA-517F419DAE22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBB1CA1-F432-44D8-A3EA-CF4352BA1097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>BotToken</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>BashOrg</t>
+  </si>
+  <si>
+    <t>SendReport</t>
   </si>
 </sst>
 </file>
@@ -431,33 +434,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="53" customWidth="1"/>
     <col min="3" max="3" width="10" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -471,15 +474,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="10">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -493,7 +496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -501,8 +504,16 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Присылать отчет в телеграм" prompt="True - ДА_x000a_False - НЕТ" sqref="B3" xr:uid="{5915179B-F2CC-45EF-82B4-8F2477B0DCB5}">
       <formula1>$C$3:$D$3</formula1>
     </dataValidation>
@@ -511,10 +522,11 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="BotToken от Вашего телеграм бота" prompt="Создайте телеграм бота при помощи @BotFather https://t.me/BotFather" sqref="B1" xr:uid="{7253FA37-6E3C-4D6B-BC5D-BCE126C300DB}"/>
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="ChatID от Вашего телеграм бота" prompt="ChatID можно получить в телеграм боте @getmyid_bot https://t.me/getmyid_bot_x000a_Отправив ему любое сообщение." sqref="B2" xr:uid="{F3A5F905-0378-4473-AAC7-E194AB0DE129}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Кол-во циклов проверки Buy/Sell" prompt="Кол-во циклов проверки монет на Buy/Sell._x000a_При торговле одной монетой, 50 циклов занимает примерно 15-20 минут._x000a_Можете посмотреть в консоли, сколько времени занимает прохождение циклов от начала до Сортировки." sqref="B4" xr:uid="{56178140-2722-4D92-9CB2-D804E56533BB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Кол-во циклов до Сортировки" prompt="Кол-во циклов проверки монет на Buy/Sell_x000a_до проведения Сортировки._x000a_При торговле одной монетой, 50 циклов занимает примерно 15-20 минут._x000a_Можете посмотреть в консоли, сколько времени занимает прохождение циклов от начала до Сортировки." sqref="B7" xr:uid="{56178140-2722-4D92-9CB2-D804E56533BB}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Присылать цитаты с BashOrg.net" prompt="True - ДА_x000a_False - НЕТ" sqref="B6" xr:uid="{6310F29B-E656-4E0E-B83A-698291F128D7}">
       <formula1>$C$3:$D$3</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Отправка отчета в Telegram" prompt="Отправить отчет через n циклов_x000a_проверки монет на Buy/Sell." sqref="B4" xr:uid="{30325B65-CCF3-447A-B6E3-25CAAFF7A0AC}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Telegram.xlsx
+++ b/Telegram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gergardt\source\repos\MyGridBotTG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\BOTS\MyGridBot 2.6.5_TG\MyGridBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBB1CA1-F432-44D8-A3EA-CF4352BA1097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB357A10-517B-4C21-AD60-393A725D0468}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -436,31 +436,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
     <col min="2" max="2" width="53" customWidth="1"/>
     <col min="3" max="3" width="10" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -474,7 +472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -482,7 +480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -496,7 +494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -504,7 +502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
